--- a/resources.xlsx
+++ b/resources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benthomas/Sites/firebase-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F95EFD9-C0F4-514B-9F53-F2BD7D33222E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD75619-8781-9940-A580-E0FBB95D1492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14800" yWindow="9640" windowWidth="28040" windowHeight="17440" xr2:uid="{EB3F0EE2-A324-5340-B28F-ADDB9AD620F3}"/>
+    <workbookView xWindow="6580" yWindow="18380" windowWidth="22160" windowHeight="15140" xr2:uid="{EB3F0EE2-A324-5340-B28F-ADDB9AD620F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>biomes:</t>
   </si>
@@ -45,9 +45,6 @@
     <t>bridge</t>
   </si>
   <si>
-    <t>castle</t>
-  </si>
-  <si>
     <t>settlement</t>
   </si>
   <si>
@@ -121,6 +118,36 @@
   </si>
   <si>
     <t>farm</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>upgraded city</t>
+  </si>
+  <si>
+    <t>gives food?</t>
+  </si>
+  <si>
+    <t>gives gold</t>
+  </si>
+  <si>
+    <t>gives food</t>
+  </si>
+  <si>
+    <t>pasture?</t>
+  </si>
+  <si>
+    <t>mine?</t>
+  </si>
+  <si>
+    <t>fishery?</t>
+  </si>
+  <si>
+    <t>charge any time a new unit is recruited?</t>
   </si>
 </sst>
 </file>
@@ -487,34 +514,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABA86AAA-B40E-9141-B3FF-0F15A4FFD31D}">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -524,9 +556,9 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -540,83 +572,107 @@
       <c r="E3" s="2">
         <v>1</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" t="s">
+      <c r="F3" s="2">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <f>SUM(B3:F3)</f>
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
         <v>24</v>
       </c>
-      <c r="H3" t="s">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <f>SUM(B4:F4)</f>
+        <v>9</v>
+      </c>
+      <c r="H4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="2">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2">
-        <v>2</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G7" si="0">SUM(B5:F5)</f>
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
       </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F6" s="2">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2">
         <v>2</v>
       </c>
       <c r="C7" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
@@ -624,17 +680,38 @@
       <c r="E7" s="2">
         <v>1</v>
       </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="2">
+        <f>SUM(B3:B7)</f>
+        <v>6</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" ref="C8:F8" si="1">SUM(C3:C7)</f>
+        <v>6</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -642,7 +719,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -650,7 +727,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -658,7 +735,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -666,7 +743,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -674,7 +751,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -682,7 +759,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -690,7 +767,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -698,7 +775,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -706,7 +783,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -714,7 +791,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -722,147 +799,222 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="B23" s="2">
+        <v>3</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2">
+        <v>2</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2</v>
+      </c>
       <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="B24" s="2">
+        <v>2</v>
+      </c>
+      <c r="C24" s="2">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2">
+        <v>3</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2</v>
+      </c>
       <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+      <c r="B25" s="2">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2">
+        <v>3</v>
+      </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="C26" s="2">
+        <v>3</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2">
+        <v>3</v>
+      </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2">
         <v>4</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2">
+        <v>3</v>
+      </c>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="2">
+        <v>2</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2">
         <v>5</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B29" s="2">
+        <v>3</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2">
+        <v>2</v>
+      </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="B32" s="2">
+        <v>3</v>
+      </c>
+      <c r="C32" s="2">
+        <v>2</v>
+      </c>
       <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
+      <c r="E32" s="2">
+        <v>1</v>
+      </c>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="B33" s="2">
+        <v>3</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>28</v>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -870,6 +1022,48 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="G35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <f>SUM(B22:B35)</f>
+        <v>19</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ref="C36:E36" si="2">SUM(C22:C35)</f>
+        <v>21</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/resources.xlsx
+++ b/resources.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benthomas/Sites/firebase-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD75619-8781-9940-A580-E0FBB95D1492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780411E1-03D9-6F40-9D2B-A69AA1B6F3E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6580" yWindow="18380" windowWidth="22160" windowHeight="15140" xr2:uid="{EB3F0EE2-A324-5340-B28F-ADDB9AD620F3}"/>
+    <workbookView xWindow="6580" yWindow="16620" windowWidth="22160" windowHeight="15140" xr2:uid="{EB3F0EE2-A324-5340-B28F-ADDB9AD620F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
   <si>
     <t>biomes:</t>
   </si>
@@ -148,6 +148,21 @@
   </si>
   <si>
     <t>charge any time a new unit is recruited?</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>black</t>
   </si>
 </sst>
 </file>
@@ -514,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABA86AAA-B40E-9141-B3FF-0F15A4FFD31D}">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -525,7 +540,7 @@
     <col min="1" max="1" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>10</v>
@@ -546,7 +561,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -556,7 +571,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -585,8 +600,11 @@
       <c r="I3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -612,8 +630,11 @@
       <c r="H4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -639,8 +660,11 @@
       <c r="H5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -663,8 +687,11 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -687,8 +714,11 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2">
         <f>SUM(B3:B7)</f>
@@ -711,7 +741,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -719,7 +749,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -727,7 +757,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -735,7 +765,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -743,7 +773,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -751,7 +781,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -759,7 +789,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -767,7 +797,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
